--- a/LichHop.xlsx
+++ b/LichHop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_FPoly\5. SP22\Block1\KiemThuCoBan_SOF303\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3084BDE3-CC7E-4257-9BB2-FFDC8AB50752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC53B42C-A29D-44E1-BD54-E22CCCAAABC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B3000F3C-CB5C-47B5-9403-BC5E845F1D20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{B3000F3C-CB5C-47B5-9403-BC5E845F1D20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="16">
   <si>
     <t>LỊCH HỌP MÔN KIỂM THỬ CƠ BẢN SOF303</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>13/01/2022</t>
+  </si>
+  <si>
+    <t>17/01/2022</t>
+  </si>
+  <si>
+    <t>20/01/2022</t>
   </si>
 </sst>
 </file>
@@ -211,11 +217,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78301BBC-1182-4FA2-A6D6-075744FF2140}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,11 +552,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -647,7 +653,7 @@
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="3"/>
@@ -733,6 +739,188 @@
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>1</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>3</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>4</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>5</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>6</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>1</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>2</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>3</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>4</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>5</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>6</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
